--- a/RP-4/Timing.xlsx
+++ b/RP-4/Timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RaspberryPi\RaspberryPi_1\RP-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325C57CD-DF09-420A-8027-633AC5887D1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE1AC98-DB87-469E-BF97-E1C54854C228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{DADC2781-2582-432F-AFB0-A7A3C35F672F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DADC2781-2582-432F-AFB0-A7A3C35F672F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -118,6 +125,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -432,28 +445,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69A72F2-74EE-42FA-ADFB-93AA28F0A150}">
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:BE16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="2" customWidth="1"/>
-    <col min="2" max="51" width="3.42578125" style="2" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="62" width="3.7109375" style="2" customWidth="1"/>
+    <col min="63" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -562,50 +576,23 @@
       <c r="AK3" s="3">
         <v>36</v>
       </c>
-      <c r="AL3" s="3">
-        <v>37</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>38</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>39</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>40</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>41</v>
-      </c>
-      <c r="AQ3" s="3">
-        <v>42</v>
-      </c>
-      <c r="AR3" s="3">
-        <v>43</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>44</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>45</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>46</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>47</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>48</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>49</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>50</v>
-      </c>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
     </row>
-    <row r="4" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -622,143 +609,119 @@
         <v>5</v>
       </c>
       <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>4</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
         <v>6</v>
       </c>
-      <c r="H4" s="3">
+      <c r="O4" s="3">
         <v>7</v>
       </c>
-      <c r="I4" s="3">
+      <c r="P4" s="3">
         <v>8</v>
       </c>
-      <c r="J4" s="3">
+      <c r="Q4" s="3">
         <v>9</v>
       </c>
-      <c r="K4" s="3">
+      <c r="R4" s="3">
         <v>10</v>
       </c>
-      <c r="L4" s="3">
+      <c r="S4" s="3">
         <v>11</v>
       </c>
-      <c r="M4" s="3">
-        <v>12</v>
-      </c>
-      <c r="N4" s="3">
-        <v>13</v>
-      </c>
-      <c r="O4" s="3">
-        <v>14</v>
-      </c>
-      <c r="P4" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>16</v>
-      </c>
-      <c r="R4" s="3">
-        <v>17</v>
-      </c>
-      <c r="S4" s="3">
-        <v>18</v>
-      </c>
       <c r="T4" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="U4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W4" s="3">
+        <v>4</v>
+      </c>
+      <c r="X4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3">
         <v>3</v>
       </c>
-      <c r="X4" s="3">
+      <c r="AD4" s="3">
         <v>4</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="AE4" s="3">
         <v>5</v>
       </c>
-      <c r="Z4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="3">
+      <c r="AF4" s="3">
         <v>6</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AG4" s="3">
         <v>7</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AH4" s="3">
         <v>8</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AI4" s="3">
         <v>9</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AJ4" s="3">
         <v>10</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AK4" s="3">
         <v>11</v>
       </c>
-      <c r="AK4" s="3">
-        <v>12</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>13</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>14</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>15</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>16</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>17</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>18</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>19</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>20</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>21</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>22</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>23</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>24</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>25</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>26</v>
-      </c>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
     </row>
-    <row r="5" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
@@ -766,26 +729,26 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="4"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="6"/>
+      <c r="Z5" s="5"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
@@ -797,23 +760,28 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
     </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6"/>
@@ -825,13 +793,13 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -842,182 +810,166 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="4"/>
+      <c r="AB6" s="6"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
     </row>
-    <row r="7" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>9</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="N7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="3">
+      <c r="O7" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2</v>
+      </c>
+      <c r="T7" s="3">
+        <v>3</v>
+      </c>
+      <c r="U7" s="3">
+        <v>4</v>
+      </c>
+      <c r="V7" s="3">
+        <v>5</v>
+      </c>
+      <c r="W7" s="3">
         <v>6</v>
       </c>
-      <c r="H7" s="3">
+      <c r="X7" s="3">
         <v>7</v>
       </c>
-      <c r="I7" s="3">
+      <c r="Y7" s="3">
         <v>8</v>
       </c>
-      <c r="J7" s="3">
+      <c r="Z7" s="3">
         <v>9</v>
       </c>
-      <c r="K7" s="3">
+      <c r="AA7" s="3">
         <v>10</v>
       </c>
-      <c r="L7" s="3">
+      <c r="AB7" s="3">
         <v>11</v>
       </c>
-      <c r="M7" s="3">
-        <v>12</v>
-      </c>
-      <c r="N7" s="3">
-        <v>13</v>
-      </c>
-      <c r="O7" s="3">
-        <v>14</v>
-      </c>
-      <c r="P7" s="3">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>16</v>
-      </c>
-      <c r="R7" s="3">
-        <v>17</v>
-      </c>
-      <c r="S7" s="3">
-        <v>18</v>
-      </c>
-      <c r="T7" s="3">
-        <v>19</v>
-      </c>
-      <c r="U7" s="3">
-        <v>20</v>
-      </c>
-      <c r="V7" s="3">
-        <v>21</v>
-      </c>
-      <c r="W7" s="3">
-        <v>22</v>
-      </c>
-      <c r="X7" s="3">
-        <v>23</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>25</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>26</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>1</v>
-      </c>
       <c r="AC7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="3">
         <v>3</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AF7" s="3">
         <v>4</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AG7" s="3">
         <v>5</v>
       </c>
-      <c r="AG7" s="3">
-        <v>6</v>
-      </c>
       <c r="AH7" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ7" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="3">
-        <v>10</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>11</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>13</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>14</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>15</v>
-      </c>
-      <c r="AQ7" s="3">
-        <v>16</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>17</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>18</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>19</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>3</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>4</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AP9" s="8"/>
+    </row>
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="M16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
